--- a/training/booking DB structure.xlsx
+++ b/training/booking DB structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipe/Pipe/Training/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipe/Pipe/Training/booking/training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B0F75E-ADE3-6842-BADE-7C9AA15D15DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288F0DB-7999-B245-8E5A-49631FA0876D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1300" windowWidth="29920" windowHeight="20960" xr2:uid="{6A2FE1D7-8B7E-0E47-9E3D-CAAFA25A0FC7}"/>
+    <workbookView xWindow="8860" yWindow="1600" windowWidth="29920" windowHeight="20960" xr2:uid="{6A2FE1D7-8B7E-0E47-9E3D-CAAFA25A0FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>type_id</t>
-  </si>
-  <si>
     <t>varchar(32)</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
   </si>
   <si>
     <t>end_date</t>
-  </si>
-  <si>
-    <t>client_id</t>
   </si>
   <si>
     <t>TYPE</t>
@@ -168,9 +159,6 @@
     <t>toilets</t>
   </si>
   <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -202,13 +190,28 @@
   </si>
   <si>
     <t>select</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>place_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +228,28 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,13 +281,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD602CB-BFCD-C343-981C-0AB54805C6C6}">
-  <dimension ref="B1:G66"/>
+  <dimension ref="B1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,520 +624,575 @@
   <sheetData>
     <row r="1" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+      <c r="B46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
